--- a/04-abril/5_TODO NAT.CO/TODO NAT.xlsx
+++ b/04-abril/5_TODO NAT.CO/TODO NAT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\marzo\5_TODO NAT.CO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\04-abril\5_TODO NAT.CO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BC42C0-C544-42DC-914F-18B1DBB58246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3CCCF4-CDBC-4409-A344-DA64D9329593}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29100" yWindow="0" windowWidth="21600" windowHeight="9765" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -179,7 +179,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.249977111117893"/>
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -258,6 +258,7 @@
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -265,7 +266,6 @@
     <xf numFmtId="4" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -583,7 +583,7 @@
   <dimension ref="A1:J43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,230 +653,230 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="22">
-        <v>480313.56</v>
-      </c>
-      <c r="C5" s="22">
+      <c r="B5" s="23">
+        <v>505514.74</v>
+      </c>
+      <c r="C5" s="23">
         <v>0</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="24">
         <f>SUM(B5:C5)</f>
-        <v>480313.56</v>
-      </c>
-      <c r="E5" s="22">
-        <v>80993.11</v>
-      </c>
-      <c r="F5" s="22">
+        <v>505514.74</v>
+      </c>
+      <c r="E5" s="23">
+        <v>83257.23</v>
+      </c>
+      <c r="F5" s="23">
         <v>0</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="24">
         <f>+E5+F5</f>
-        <v>80993.11</v>
-      </c>
-      <c r="H5" s="22">
+        <v>83257.23</v>
+      </c>
+      <c r="H5" s="23">
         <f>+D5+G5</f>
-        <v>561306.67000000004</v>
-      </c>
-      <c r="I5" s="22">
+        <v>588771.97</v>
+      </c>
+      <c r="I5" s="23">
         <f>+H5*2</f>
-        <v>1122613.3400000001</v>
+        <v>1177543.94</v>
       </c>
       <c r="J5" s="4">
         <v>748398.45</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="22">
-        <v>960627.15</v>
-      </c>
-      <c r="C6" s="22">
+      <c r="B6" s="23">
+        <v>1011029.47</v>
+      </c>
+      <c r="C6" s="23">
         <v>0</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="24">
         <f t="shared" ref="D6:D11" si="0">SUM(B6:C6)</f>
-        <v>960627.15</v>
-      </c>
-      <c r="E6" s="22">
-        <v>161986.21</v>
-      </c>
-      <c r="F6" s="22">
+        <v>1011029.47</v>
+      </c>
+      <c r="E6" s="23">
+        <v>166514.45000000001</v>
+      </c>
+      <c r="F6" s="23">
         <v>0</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="24">
         <f t="shared" ref="G6:G11" si="1">+E6+F6</f>
-        <v>161986.21</v>
-      </c>
-      <c r="H6" s="22">
+        <v>166514.45000000001</v>
+      </c>
+      <c r="H6" s="23">
         <f>+D6+G6</f>
-        <v>1122613.3600000001</v>
-      </c>
-      <c r="I6" s="22">
+        <v>1177543.92</v>
+      </c>
+      <c r="I6" s="23">
         <f>+H6*1</f>
-        <v>1122613.3600000001</v>
+        <v>1177543.92</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="22">
-        <v>482141.29</v>
-      </c>
-      <c r="C7" s="22">
+      <c r="B7" s="23">
+        <v>505514.74</v>
+      </c>
+      <c r="C7" s="23">
         <v>0</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="24">
         <f t="shared" si="0"/>
-        <v>482141.29</v>
-      </c>
-      <c r="E7" s="22">
-        <v>80993.11</v>
-      </c>
-      <c r="F7" s="22">
+        <v>505514.74</v>
+      </c>
+      <c r="E7" s="23">
+        <v>83257.23</v>
+      </c>
+      <c r="F7" s="23">
         <v>0</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="24">
         <f t="shared" si="1"/>
-        <v>80993.11</v>
-      </c>
-      <c r="H7" s="22">
+        <v>83257.23</v>
+      </c>
+      <c r="H7" s="23">
         <f>+D7+G7</f>
-        <v>563134.4</v>
-      </c>
-      <c r="I7" s="22">
+        <v>588771.97</v>
+      </c>
+      <c r="I7" s="23">
         <f>+H7*2</f>
-        <v>1126268.8</v>
+        <v>1177543.94</v>
       </c>
       <c r="J7" s="4">
         <v>739274.68</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="27">
-        <v>466323.86</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23">
+      <c r="B8" s="28">
+        <v>490791.02</v>
+      </c>
+      <c r="C8" s="23"/>
+      <c r="D8" s="24">
         <f t="shared" si="0"/>
-        <v>466323.86</v>
-      </c>
-      <c r="E8" s="22">
-        <v>78634.080000000002</v>
-      </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23">
+        <v>490791.02</v>
+      </c>
+      <c r="E8" s="23">
+        <v>80832.259999999995</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24">
         <f t="shared" si="1"/>
-        <v>78634.080000000002</v>
-      </c>
-      <c r="H8" s="22">
+        <v>80832.259999999995</v>
+      </c>
+      <c r="H8" s="23">
         <f t="shared" ref="H8:H11" si="2">+D8+G8</f>
-        <v>544957.93999999994</v>
-      </c>
-      <c r="I8" s="22">
+        <v>571623.28</v>
+      </c>
+      <c r="I8" s="23">
         <f t="shared" ref="I8:I10" si="3">+H8*2</f>
-        <v>1089915.8799999999</v>
+        <v>1143246.56</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="22">
-        <v>466323.86</v>
-      </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23">
+      <c r="B9" s="23">
+        <v>490791.02</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="24">
         <f t="shared" si="0"/>
-        <v>466323.86</v>
-      </c>
-      <c r="E9" s="22">
-        <v>78634.080000000002</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23">
+        <v>490791.02</v>
+      </c>
+      <c r="E9" s="23">
+        <v>80832.259999999995</v>
+      </c>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24">
         <f t="shared" si="1"/>
-        <v>78634.080000000002</v>
-      </c>
-      <c r="H9" s="22">
+        <v>80832.259999999995</v>
+      </c>
+      <c r="H9" s="23">
         <f t="shared" si="2"/>
-        <v>544957.93999999994</v>
-      </c>
-      <c r="I9" s="22">
+        <v>571623.28</v>
+      </c>
+      <c r="I9" s="23">
         <f t="shared" si="3"/>
-        <v>1089915.8799999999</v>
+        <v>1143246.56</v>
       </c>
       <c r="J9" s="4">
         <v>694117.93</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="22">
-        <v>466323.86</v>
-      </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23">
+      <c r="B10" s="23">
+        <v>490791.02</v>
+      </c>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24">
         <f t="shared" si="0"/>
-        <v>466323.86</v>
-      </c>
-      <c r="E10" s="22">
-        <v>78634.080000000002</v>
-      </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23">
+        <v>490791.02</v>
+      </c>
+      <c r="E10" s="23">
+        <v>80832.259999999995</v>
+      </c>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24">
         <f t="shared" si="1"/>
-        <v>78634.080000000002</v>
-      </c>
-      <c r="H10" s="22">
+        <v>80832.259999999995</v>
+      </c>
+      <c r="H10" s="23">
         <f t="shared" si="2"/>
-        <v>544957.93999999994</v>
-      </c>
-      <c r="I10" s="22">
+        <v>571623.28</v>
+      </c>
+      <c r="I10" s="23">
         <f t="shared" si="3"/>
-        <v>1089915.8799999999</v>
+        <v>1143246.56</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="25">
-        <v>960675.91</v>
-      </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26">
+      <c r="B11" s="26">
+        <v>1011084.03</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="27">
         <f t="shared" si="0"/>
-        <v>960675.91</v>
-      </c>
-      <c r="E11" s="25">
-        <v>162057.9</v>
-      </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26">
+        <v>1011084.03</v>
+      </c>
+      <c r="E11" s="26">
+        <v>165444.95000000001</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="27">
         <f t="shared" si="1"/>
-        <v>162057.9</v>
-      </c>
-      <c r="H11" s="25">
+        <v>165444.95000000001</v>
+      </c>
+      <c r="H11" s="26">
         <f t="shared" si="2"/>
-        <v>1122733.81</v>
-      </c>
-      <c r="I11" s="25">
+        <v>1176528.98</v>
+      </c>
+      <c r="I11" s="26">
         <f>+H11</f>
-        <v>1122733.81</v>
+        <v>1176528.98</v>
       </c>
       <c r="J11" s="4" t="s">
         <v>24</v>
@@ -886,7 +886,7 @@
       <c r="A12" s="8"/>
       <c r="B12" s="9">
         <f>SUM(B5:B11)</f>
-        <v>4282729.4899999993</v>
+        <v>4505516.04</v>
       </c>
       <c r="C12" s="9">
         <f>SUM(C5:C9)</f>
@@ -894,11 +894,11 @@
       </c>
       <c r="D12" s="9">
         <f>SUM(B12:C12)</f>
-        <v>4282729.4899999993</v>
+        <v>4505516.04</v>
       </c>
       <c r="E12" s="9">
         <f>SUM(E5:E11)</f>
-        <v>721932.57000000007</v>
+        <v>740970.6399999999</v>
       </c>
       <c r="F12" s="9">
         <f>SUM(F5:F9)</f>
@@ -906,15 +906,15 @@
       </c>
       <c r="G12" s="9">
         <f>SUM(G5:G11)</f>
-        <v>721932.57000000007</v>
+        <v>740970.6399999999</v>
       </c>
       <c r="H12" s="18">
         <f>+D12+G12</f>
-        <v>5004662.0599999996</v>
+        <v>5246486.68</v>
       </c>
       <c r="I12" s="9">
         <f>SUM(I5:I9)</f>
-        <v>5551327.2599999998</v>
+        <v>5819124.9199999999</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -930,31 +930,31 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="11">
-        <v>33682.019999999997</v>
+        <v>35326.31</v>
       </c>
       <c r="C17">
-        <v>30552.2</v>
+        <v>34807.879999999997</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D20" si="4">+B17-C17</f>
-        <v>3129.8199999999961</v>
-      </c>
-      <c r="F17" s="28">
-        <v>1110272.42</v>
+        <v>518.43000000000029</v>
+      </c>
+      <c r="F17" s="21">
+        <v>1168903.3999999999</v>
       </c>
       <c r="G17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="11">
-        <v>27636.04</v>
+        <v>35295.870000000003</v>
       </c>
       <c r="C18">
-        <v>27056.57</v>
+        <v>34914.21</v>
       </c>
       <c r="D18">
         <f t="shared" si="4"/>
-        <v>579.47000000000116</v>
+        <v>381.66000000000349</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" t="s">
